--- a/target/test-classes/output.xlsx
+++ b/target/test-classes/output.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>No email, no password</t>
+  </si>
+  <si>
+    <t>One of the parameters is not filled</t>
+  </si>
+  <si>
+    <t>Timeout error</t>
+  </si>
+  <si>
+    <t>Wrong phone format</t>
+  </si>
+  <si>
+    <t>Input country does not exist</t>
   </si>
 </sst>
 </file>
@@ -491,7 +503,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FCB6E1-F45C-4397-A700-670FB479ABBD}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -513,6 +525,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/test-classes/output.xlsx
+++ b/target/test-classes/output.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Input country does not exist</t>
+  </si>
+  <si>
+    <t>Wrong email format</t>
+  </si>
+  <si>
+    <t>Correct input</t>
   </si>
 </sst>
 </file>
@@ -527,13 +533,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>12</v>
